--- a/data/raw/EDA_vars.xlsx
+++ b/data/raw/EDA_vars.xlsx
@@ -1,44 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linam\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C82D05F-2332-406C-804B-6BD2D2FB37D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{65046F60-5ADE-4BDB-83A7-9614952E57BA}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Selected" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Selected"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="clasificacion">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -347,28 +322,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -382,36 +368,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFe2f0d9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFededed"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFdae3f3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFdeebf7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -421,130 +402,139 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{97B7B301-3362-4A6A-A4DC-8FE2DFAEBB97}"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Diseño"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Selected"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Tablas1"/>
-      <sheetName val="Tablas2"/>
-      <sheetName val="Tablas3"/>
-      <sheetName val="Tablas4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,10 +542,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -582,116 +572,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,162 +659,185 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648267BE-862A-4C13-A469-D11381769C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2"/>
-    <col min="3" max="3" width="90.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" style="22" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="90.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +847,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -879,8 +859,9 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -890,8 +871,9 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -901,8 +883,9 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -912,8 +895,9 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -923,8 +907,9 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -934,8 +919,9 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -945,8 +931,9 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -956,8 +943,9 @@
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -967,8 +955,9 @@
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -978,8 +967,9 @@
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -989,8 +979,9 @@
       <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -1000,8 +991,9 @@
       <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1011,8 +1003,9 @@
       <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
@@ -1022,8 +1015,9 @@
       <c r="C15" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1035,7 +1029,7 @@
       </c>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
@@ -1047,7 +1041,7 @@
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
@@ -1059,7 +1053,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="13" t="s">
         <v>39</v>
       </c>
@@ -1071,7 +1065,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="13" t="s">
         <v>41</v>
       </c>
@@ -1083,7 +1077,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="13" t="s">
         <v>43</v>
       </c>
@@ -1095,7 +1089,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="13" t="s">
         <v>45</v>
       </c>
@@ -1107,7 +1101,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="13" t="s">
         <v>47</v>
       </c>
@@ -1119,7 +1113,7 @@
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="13" t="s">
         <v>49</v>
       </c>
@@ -1131,7 +1125,7 @@
       </c>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="13" t="s">
         <v>51</v>
       </c>
@@ -1143,7 +1137,7 @@
       </c>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1153,8 +1147,9 @@
       <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1164,8 +1159,9 @@
       <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="6" t="s">
         <v>57</v>
       </c>
@@ -1175,8 +1171,9 @@
       <c r="C28" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="6" t="s">
         <v>59</v>
       </c>
@@ -1186,8 +1183,9 @@
       <c r="C29" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="16" t="s">
         <v>61</v>
       </c>
@@ -1197,8 +1195,9 @@
       <c r="C30" s="16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="16" t="s">
         <v>63</v>
       </c>
@@ -1208,8 +1207,9 @@
       <c r="C31" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="18" t="s">
         <v>65</v>
       </c>
@@ -1219,8 +1219,9 @@
       <c r="C32" s="19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="18" t="s">
         <v>67</v>
       </c>
@@ -1230,8 +1231,9 @@
       <c r="C33" s="19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -1241,8 +1243,9 @@
       <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
@@ -1252,8 +1255,9 @@
       <c r="C35" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -1263,8 +1267,9 @@
       <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
@@ -1274,8 +1279,9 @@
       <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
@@ -1285,8 +1291,9 @@
       <c r="C38" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1296,8 +1303,9 @@
       <c r="C39" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
@@ -1307,8 +1315,9 @@
       <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="3" t="s">
         <v>83</v>
       </c>
@@ -1318,8 +1327,9 @@
       <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="13" t="s">
         <v>85</v>
       </c>
@@ -1329,8 +1339,9 @@
       <c r="C42" s="21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="13" t="s">
         <v>87</v>
       </c>
@@ -1340,8 +1351,9 @@
       <c r="C43" s="21" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="13" t="s">
         <v>89</v>
       </c>
@@ -1351,8 +1363,9 @@
       <c r="C44" s="21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="13" t="s">
         <v>91</v>
       </c>
@@ -1362,8 +1375,9 @@
       <c r="C45" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="13" t="s">
         <v>93</v>
       </c>
@@ -1373,8 +1387,9 @@
       <c r="C46" s="21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="13" t="s">
         <v>95</v>
       </c>
@@ -1384,8 +1399,9 @@
       <c r="C47" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="13" t="s">
         <v>97</v>
       </c>
@@ -1395,58 +1411,9 @@
       <c r="C48" s="21" t="s">
         <v>98</v>
       </c>
+      <c r="D48" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" location="'Tablas1'!$A$5" display="Tablas1" xr:uid="{E40452C7-CD30-4763-BBA8-63A11421635E}"/>
-    <hyperlink ref="B3" location="'Tablas1'!$A$27" display="Tablas1" xr:uid="{83F8A746-124F-45C7-95A7-146E39A6EBF2}"/>
-    <hyperlink ref="B4" location="'Tablas4'!$A$5" display="Tablas4" xr:uid="{9E04E75A-B653-4443-A652-BD10691241ED}"/>
-    <hyperlink ref="B5" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{A674025D-537F-44D2-A2E6-F5C01D721006}"/>
-    <hyperlink ref="B6" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{51081801-4DE8-40B3-886F-39060A5E9350}"/>
-    <hyperlink ref="B7" location="'Tablas1'!$A$76" display="Tablas1" xr:uid="{0EAA3C05-5CCD-47C2-AEC4-745410191AEB}"/>
-    <hyperlink ref="B8" location="'Tablas1'!$A$86" display="Tablas1" xr:uid="{D8ACD2CD-B170-4877-9C3E-E867822CECEA}"/>
-    <hyperlink ref="B9" location="'Tablas1'!$A$205" display="Tablas1" xr:uid="{7FB52712-A93C-442E-B7E4-84E4A38B0417}"/>
-    <hyperlink ref="B10" location="'Tablas1'!$A$32" display="Tablas1" xr:uid="{626F67F0-573D-411D-AF13-07840277FF00}"/>
-    <hyperlink ref="B11" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{9DF9CE78-5F82-4358-A8EB-36AF89821037}"/>
-    <hyperlink ref="B12" location="'Tablas1'!$A$32" display="Tablas1" xr:uid="{AF4DD2C4-526E-4764-AA1D-873B6ABF0E01}"/>
-    <hyperlink ref="B13" location="'Tablas1'!$A$32" display="Tablas1" xr:uid="{A62C8327-4C6A-45E7-84C0-52195D1B9E94}"/>
-    <hyperlink ref="B16" location="'Tablas1'!$A$474" display="Tablas1" xr:uid="{65B84C25-840B-4FB0-A956-B9B24ABE2E79}"/>
-    <hyperlink ref="B26" location="'Tablas1'!$A$492" display="Tablas1" xr:uid="{E78E1307-6682-4957-A8E1-B74CCD01B9CC}"/>
-    <hyperlink ref="B27" location="'Tablas4'!$A$10" display="Tablas4" xr:uid="{8895838B-5797-4994-BB43-A2A206FDC602}"/>
-    <hyperlink ref="B28" location="'Tablas1'!$A$511" display="Tablas1" xr:uid="{EAA635E2-D418-4571-B05E-1CAC4BCBA1FB}"/>
-    <hyperlink ref="B29" location="'Tablas1'!$A$511" display="Tablas1" xr:uid="{C4C8F634-80ED-48FF-875F-E9CC53BC8777}"/>
-    <hyperlink ref="B30" location="'Tablas1'!$A$511" display="Tablas1" xr:uid="{CDB8628A-91C6-4581-9CDB-351FA6501CBB}"/>
-    <hyperlink ref="B31" location="'Tablas1'!$A$511" display="Tablas1" xr:uid="{35A6798A-16B7-4C88-B12A-7B8DD0CF8B41}"/>
-    <hyperlink ref="B34" location="'Tablas1'!$A$522" display="Tablas1" xr:uid="{7D15C842-884D-4A5A-BFFC-5F2625DCF9D9}"/>
-    <hyperlink ref="B35" location="'Tablas4'!$A$10" display="Tablas4" xr:uid="{B7CF6A0E-D033-4594-A725-BC9A2A8C9041}"/>
-    <hyperlink ref="B36" location="'Tablas1'!$A$563" display="Tablas1" xr:uid="{B66D90CB-92AB-4A3C-9CC1-BDD9863CA9CA}"/>
-    <hyperlink ref="B37" location="'Tablas1'!$A$591" display="Tablas1" xr:uid="{BAE11B11-5303-4D53-8997-333DAA1FDA83}"/>
-    <hyperlink ref="B38" location="'Tablas1'!$A$32" display="Tablas1" xr:uid="{6CDE7DF2-2075-4855-BA25-06D173888CAC}"/>
-    <hyperlink ref="B39" location="'Tablas1'!$A$635" display="Tablas1" xr:uid="{93F5D318-D04A-4D29-BE37-DC72535FC6EB}"/>
-    <hyperlink ref="B40" location="'Tablas1'!$A$646" display="Tablas1" xr:uid="{CA787740-5E59-4940-9DE4-EAA4670426EF}"/>
-    <hyperlink ref="B41" location="'Tablas1'!$A$663" display="Tablas1" xr:uid="{EFE62643-C5B3-4894-A821-DB73B1381C1B}"/>
-    <hyperlink ref="B17" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{FFAA7689-A886-40AD-B6D4-EA16694DD1AF}"/>
-    <hyperlink ref="B18" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{3106D75E-03FE-4B7A-AF36-3EAB7633FAEC}"/>
-    <hyperlink ref="B19" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{6C8D20D2-CD91-4A93-A572-C4BF3ECC9272}"/>
-    <hyperlink ref="B20" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{D346A305-8463-4CAC-9930-B1EA044052DA}"/>
-    <hyperlink ref="B21" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{D6DDAB0E-5EDA-4235-8358-47EEEE10DF7E}"/>
-    <hyperlink ref="B22" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{7D89D352-2A22-4B97-B9FC-630E6C42B0C2}"/>
-    <hyperlink ref="B23" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{C8CFB37F-94E8-4C65-A1FA-ED46EA0D6DCE}"/>
-    <hyperlink ref="B24" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{3C0A8BCB-6AD8-4BE0-A8BF-B82C1D70D611}"/>
-    <hyperlink ref="B25" location="'Tablas1'!$A$63" display="Tablas1" xr:uid="{140866F9-A9C3-40D4-A403-077F6A6DDE14}"/>
-    <hyperlink ref="B42" location="'Tablas1'!$A$273" display="Tablas1" xr:uid="{43383984-2C46-4DF0-8257-B79A4A77F1C9}"/>
-    <hyperlink ref="B43" location="'Tablas1'!$A$273" display="Tablas1" xr:uid="{F2E8BF48-2DEC-4292-8DF5-1CD786AE384E}"/>
-    <hyperlink ref="B44" location="'Tablas1'!$A$273" display="Tablas1" xr:uid="{ED594418-86F3-417F-A968-ADDFD2A673B4}"/>
-    <hyperlink ref="B45" location="'Tablas1'!$A$273" display="Tablas1" xr:uid="{C054B26C-3744-428D-9B6F-AE0EC364B7EA}"/>
-    <hyperlink ref="B46" location="'Tablas1'!$A$273" display="Tablas1" xr:uid="{6E76A414-AEDE-4B2E-A75A-673C3D5FDF18}"/>
-    <hyperlink ref="B47" location="'Tablas1'!$A$273" display="Tablas1" xr:uid="{4612F0BE-9EAC-4110-83E7-ADFA258C36E1}"/>
-    <hyperlink ref="B48" location="'Tablas1'!$A$273" display="Tablas1" xr:uid="{FD5D31B9-DD51-47EA-920B-9E4A85A90B4E}"/>
-    <hyperlink ref="B14" location="'Tablas1'!$A$32" display="Tablas1" xr:uid="{F5DB68BB-E3E8-4987-9191-84DC8A1A2093}"/>
-    <hyperlink ref="B15" location="'Tablas1'!$A$32" display="Tablas1" xr:uid="{EDC67C42-464C-4954-B7CE-E6CE3283CF13}"/>
-    <hyperlink ref="B32" location="'Tablas1'!$A$511" display="Tablas1" xr:uid="{E3275018-5F06-4E2E-99A1-FD43A37D2E2D}"/>
-    <hyperlink ref="B33" location="'Tablas1'!$A$511" display="Tablas1" xr:uid="{40823441-9527-4653-A9B8-D1AD14D8F9C3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>